--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H2">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I2">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J2">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N2">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O2">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P2">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q2">
-        <v>58.47226634684295</v>
+        <v>59.11248459590089</v>
       </c>
       <c r="R2">
-        <v>58.47226634684295</v>
+        <v>532.012361363108</v>
       </c>
       <c r="S2">
-        <v>0.002791359654411266</v>
+        <v>0.00270375166378722</v>
       </c>
       <c r="T2">
-        <v>0.002791359654411266</v>
+        <v>0.00270375166378722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H3">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I3">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J3">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N3">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O3">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P3">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q3">
-        <v>414.6838179883144</v>
+        <v>418.931338812939</v>
       </c>
       <c r="R3">
-        <v>414.6838179883144</v>
+        <v>3770.382049316452</v>
       </c>
       <c r="S3">
-        <v>0.019796251303201</v>
+        <v>0.0191615411206491</v>
       </c>
       <c r="T3">
-        <v>0.019796251303201</v>
+        <v>0.0191615411206491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H4">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I4">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J4">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N4">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O4">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P4">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q4">
-        <v>662.9602751135992</v>
+        <v>673.9261348515266</v>
       </c>
       <c r="R4">
-        <v>662.9602751135992</v>
+        <v>6065.33521366374</v>
       </c>
       <c r="S4">
-        <v>0.03164851783668567</v>
+        <v>0.03082477281797185</v>
       </c>
       <c r="T4">
-        <v>0.03164851783668567</v>
+        <v>0.03082477281797185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H5">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I5">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J5">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N5">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O5">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P5">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q5">
-        <v>533.2087204384039</v>
+        <v>597.2641194848609</v>
       </c>
       <c r="R5">
-        <v>533.2087204384039</v>
+        <v>5375.377075363748</v>
       </c>
       <c r="S5">
-        <v>0.02545441459004398</v>
+        <v>0.02731832146486332</v>
       </c>
       <c r="T5">
-        <v>0.02545441459004398</v>
+        <v>0.02731832146486332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H6">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I6">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J6">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N6">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O6">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P6">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q6">
-        <v>44.74261480943455</v>
+        <v>47.12922549120844</v>
       </c>
       <c r="R6">
-        <v>44.74261480943455</v>
+        <v>424.163029420876</v>
       </c>
       <c r="S6">
-        <v>0.002135931059540039</v>
+        <v>0.002155648213841009</v>
       </c>
       <c r="T6">
-        <v>0.002135931059540039</v>
+        <v>0.002155648213841009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H7">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I7">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J7">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N7">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O7">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P7">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q7">
-        <v>213.018506676319</v>
+        <v>214.1764286924703</v>
       </c>
       <c r="R7">
-        <v>213.018506676319</v>
+        <v>1927.587858232233</v>
       </c>
       <c r="S7">
-        <v>0.01016911610116372</v>
+        <v>0.009796236436007077</v>
       </c>
       <c r="T7">
-        <v>0.01016911610116372</v>
+        <v>0.009796236436007077</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H8">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I8">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J8">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N8">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O8">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P8">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q8">
-        <v>1510.721803166</v>
+        <v>1517.872554802619</v>
       </c>
       <c r="R8">
-        <v>1510.721803166</v>
+        <v>13660.85299322357</v>
       </c>
       <c r="S8">
-        <v>0.07211911139860744</v>
+        <v>0.06942611993929156</v>
       </c>
       <c r="T8">
-        <v>0.07211911139860744</v>
+        <v>0.06942611993929157</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H9">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I9">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J9">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N9">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O9">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P9">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q9">
-        <v>2415.210092126786</v>
+        <v>2441.770021201734</v>
       </c>
       <c r="R9">
-        <v>2415.210092126786</v>
+        <v>21975.93019081561</v>
       </c>
       <c r="S9">
-        <v>0.1152977373597839</v>
+        <v>0.111684355725216</v>
       </c>
       <c r="T9">
-        <v>0.1152977373597839</v>
+        <v>0.111684355725216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H10">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I10">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J10">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N10">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O10">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P10">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q10">
-        <v>1942.516212743177</v>
+        <v>2164.00811050143</v>
       </c>
       <c r="R10">
-        <v>1942.516212743177</v>
+        <v>19476.07299451287</v>
       </c>
       <c r="S10">
-        <v>0.09273219122596632</v>
+        <v>0.09897977676314773</v>
       </c>
       <c r="T10">
-        <v>0.09273219122596632</v>
+        <v>0.09897977676314773</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H11">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I11">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J11">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N11">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O11">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P11">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q11">
-        <v>163.0004374204337</v>
+        <v>170.7586692008057</v>
       </c>
       <c r="R11">
-        <v>163.0004374204337</v>
+        <v>1536.828022807251</v>
       </c>
       <c r="S11">
-        <v>0.007781344440591417</v>
+        <v>0.007810347325339548</v>
       </c>
       <c r="T11">
-        <v>0.007781344440591417</v>
+        <v>0.007810347325339548</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H12">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I12">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J12">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N12">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O12">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P12">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q12">
-        <v>209.366309841799</v>
+        <v>210.4183008859986</v>
       </c>
       <c r="R12">
-        <v>209.366309841799</v>
+        <v>1893.764707973987</v>
       </c>
       <c r="S12">
-        <v>0.009994766866376474</v>
+        <v>0.009624343063922739</v>
       </c>
       <c r="T12">
-        <v>0.009994766866376474</v>
+        <v>0.009624343063922737</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H13">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I13">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J13">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N13">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O13">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P13">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q13">
-        <v>1484.820516590243</v>
+        <v>1491.238629259511</v>
       </c>
       <c r="R13">
-        <v>1484.820516590243</v>
+        <v>13421.1476633356</v>
       </c>
       <c r="S13">
-        <v>0.07088263108303271</v>
+        <v>0.06820790823676136</v>
       </c>
       <c r="T13">
-        <v>0.07088263108303271</v>
+        <v>0.06820790823676136</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H14">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I14">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J14">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N14">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O14">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P14">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q14">
-        <v>2373.80137703064</v>
+        <v>2398.924578919832</v>
       </c>
       <c r="R14">
-        <v>2373.80137703064</v>
+        <v>21590.32121027849</v>
       </c>
       <c r="S14">
-        <v>0.1133209606093367</v>
+        <v>0.1097246438868909</v>
       </c>
       <c r="T14">
-        <v>0.1133209606093367</v>
+        <v>0.1097246438868909</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H15">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I15">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J15">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N15">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O15">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P15">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q15">
-        <v>1909.211822087747</v>
+        <v>2126.036522763439</v>
       </c>
       <c r="R15">
-        <v>1909.211822087747</v>
+        <v>19134.32870487095</v>
       </c>
       <c r="S15">
-        <v>0.09114230018533388</v>
+        <v>0.09724299063031862</v>
       </c>
       <c r="T15">
-        <v>0.09114230018533388</v>
+        <v>0.09724299063031859</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H16">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I16">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J16">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N16">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O16">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P16">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q16">
-        <v>160.2057991006897</v>
+        <v>167.7623875518988</v>
       </c>
       <c r="R16">
-        <v>160.2057991006897</v>
+        <v>1509.861487967089</v>
       </c>
       <c r="S16">
-        <v>0.007647933489694927</v>
+        <v>0.007673300108515765</v>
       </c>
       <c r="T16">
-        <v>0.007647933489694927</v>
+        <v>0.007673300108515764</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H17">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I17">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J17">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N17">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O17">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P17">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q17">
-        <v>200.0238327316384</v>
+        <v>200.7541125767532</v>
       </c>
       <c r="R17">
-        <v>200.0238327316384</v>
+        <v>1806.787013190779</v>
       </c>
       <c r="S17">
-        <v>0.009548773999897285</v>
+        <v>0.009182311817919469</v>
       </c>
       <c r="T17">
-        <v>0.009548773999897285</v>
+        <v>0.009182311817919469</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H18">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I18">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J18">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N18">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O18">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P18">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q18">
-        <v>1418.563907781389</v>
+        <v>1422.748336986917</v>
       </c>
       <c r="R18">
-        <v>1418.563907781389</v>
+        <v>12804.73503288225</v>
       </c>
       <c r="S18">
-        <v>0.06771966107653271</v>
+        <v>0.06507522411848725</v>
       </c>
       <c r="T18">
-        <v>0.06771966107653271</v>
+        <v>0.06507522411848726</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H19">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I19">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J19">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N19">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O19">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P19">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q19">
-        <v>2267.876096856699</v>
+        <v>2288.745669705472</v>
       </c>
       <c r="R19">
-        <v>2267.876096856699</v>
+        <v>20598.71102734925</v>
       </c>
       <c r="S19">
-        <v>0.1082642803755679</v>
+        <v>0.1046851600766766</v>
       </c>
       <c r="T19">
-        <v>0.1082642803755679</v>
+        <v>0.1046851600766766</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H20">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I20">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J20">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N20">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O20">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P20">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q20">
-        <v>1824.01775356841</v>
+        <v>2028.390941453233</v>
       </c>
       <c r="R20">
-        <v>1824.01775356841</v>
+        <v>18255.5184730791</v>
       </c>
       <c r="S20">
-        <v>0.08707529029299602</v>
+        <v>0.09277676992019732</v>
       </c>
       <c r="T20">
-        <v>0.08707529029299602</v>
+        <v>0.09277676992019732</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H21">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I21">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J21">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N21">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O21">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P21">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q21">
-        <v>153.0569936785368</v>
+        <v>160.0573196101681</v>
       </c>
       <c r="R21">
-        <v>153.0569936785368</v>
+        <v>1440.515876491513</v>
       </c>
       <c r="S21">
-        <v>0.007306662520065213</v>
+        <v>0.007320877258935652</v>
       </c>
       <c r="T21">
-        <v>0.007306662520065213</v>
+        <v>0.007320877258935652</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H22">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I22">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J22">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N22">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O22">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P22">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q22">
-        <v>33.70769089339755</v>
+        <v>34.98343267014911</v>
       </c>
       <c r="R22">
-        <v>33.70769089339755</v>
+        <v>314.850894031342</v>
       </c>
       <c r="S22">
-        <v>0.001609143860528268</v>
+        <v>0.001600110618484523</v>
       </c>
       <c r="T22">
-        <v>0.001609143860528268</v>
+        <v>0.001600110618484523</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H23">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I23">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J23">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N23">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O23">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P23">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q23">
-        <v>239.0540820212066</v>
+        <v>247.9282741195109</v>
       </c>
       <c r="R23">
-        <v>239.0540820212066</v>
+        <v>2231.354467075598</v>
       </c>
       <c r="S23">
-        <v>0.01141200711835152</v>
+        <v>0.01134001536617876</v>
       </c>
       <c r="T23">
-        <v>0.01141200711835152</v>
+        <v>0.01134001536617876</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H24">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I24">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J24">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N24">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O24">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P24">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q24">
-        <v>382.1787904640977</v>
+        <v>398.8370599612234</v>
       </c>
       <c r="R24">
-        <v>382.1787904640977</v>
+        <v>3589.53353965101</v>
       </c>
       <c r="S24">
-        <v>0.01824452040468547</v>
+        <v>0.01824244695214416</v>
       </c>
       <c r="T24">
-        <v>0.01824452040468547</v>
+        <v>0.01824244695214416</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H25">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I25">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J25">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N25">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O25">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P25">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q25">
-        <v>307.3805045213912</v>
+        <v>353.4676177651891</v>
       </c>
       <c r="R25">
-        <v>307.3805045213912</v>
+        <v>3181.208559886702</v>
       </c>
       <c r="S25">
-        <v>0.01467378626619485</v>
+        <v>0.01616728963704914</v>
       </c>
       <c r="T25">
-        <v>0.01467378626619485</v>
+        <v>0.01616728963704914</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H26">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I26">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J26">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N26">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O26">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P26">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q26">
-        <v>25.79291558176795</v>
+        <v>27.89160526814156</v>
       </c>
       <c r="R26">
-        <v>25.79291558176795</v>
+        <v>251.024447413274</v>
       </c>
       <c r="S26">
-        <v>0.001231306881411311</v>
+        <v>0.001275736837403439</v>
       </c>
       <c r="T26">
-        <v>0.001231306881411311</v>
+        <v>0.001275736837403439</v>
       </c>
     </row>
   </sheetData>
